--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_error_tables_T45_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_error_tables_T45_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2036364321150554</v>
+        <v>0.1727455869996703</v>
       </c>
       <c r="C2">
-        <v>0.3089978501498661</v>
+        <v>0.2925651826085037</v>
       </c>
       <c r="D2">
-        <v>0.216765395349195</v>
+        <v>0.1673036931228319</v>
       </c>
       <c r="E2">
-        <v>0.4655807076643049</v>
+        <v>0.409027741263147</v>
       </c>
       <c r="F2">
-        <v>0.4333807286052367</v>
+        <v>0.3847553842407884</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1727455869996703</v>
+        <v>0.2046513626860979</v>
       </c>
       <c r="C3">
-        <v>0.2925651826085037</v>
+        <v>0.2941678900787714</v>
       </c>
       <c r="D3">
-        <v>0.1673036931228319</v>
+        <v>0.1637830044104861</v>
       </c>
       <c r="E3">
-        <v>0.409027741263147</v>
+        <v>0.4047011297371013</v>
       </c>
       <c r="F3">
-        <v>0.3847553842407884</v>
+        <v>0.3633995406912939</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2046513626860979</v>
+        <v>0.2207881156328718</v>
       </c>
       <c r="C4">
-        <v>0.2941678900787714</v>
+        <v>0.3023524304801385</v>
       </c>
       <c r="D4">
-        <v>0.1637830044104861</v>
+        <v>0.1964366846399542</v>
       </c>
       <c r="E4">
-        <v>0.4047011297371013</v>
+        <v>0.4432117830563107</v>
       </c>
       <c r="F4">
-        <v>0.3633995406912939</v>
+        <v>0.4013920676417463</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2207881156328718</v>
+        <v>0.2661302185036374</v>
       </c>
       <c r="C5">
-        <v>0.3023524304801385</v>
+        <v>0.2968048388866972</v>
       </c>
       <c r="D5">
-        <v>0.1964366846399542</v>
+        <v>0.2374595161704083</v>
       </c>
       <c r="E5">
-        <v>0.4432117830563107</v>
+        <v>0.4872981799375084</v>
       </c>
       <c r="F5">
-        <v>0.4013920676417463</v>
+        <v>0.4281327425770843</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2661302185036374</v>
+        <v>0.2665145217128843</v>
       </c>
       <c r="C6">
-        <v>0.2968048388866972</v>
+        <v>0.2913645221026481</v>
       </c>
       <c r="D6">
-        <v>0.2374595161704083</v>
+        <v>0.1729824392181902</v>
       </c>
       <c r="E6">
-        <v>0.4872981799375084</v>
+        <v>0.4159115762012284</v>
       </c>
       <c r="F6">
-        <v>0.4281327425770843</v>
+        <v>0.3365716845130267</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2665145217128843</v>
+        <v>0.2914848454201801</v>
       </c>
       <c r="C7">
-        <v>0.2913645221026481</v>
+        <v>0.2916783576633104</v>
       </c>
       <c r="D7">
-        <v>0.1729824392181902</v>
+        <v>0.2212395806333997</v>
       </c>
       <c r="E7">
-        <v>0.4159115762012284</v>
+        <v>0.4703611172635336</v>
       </c>
       <c r="F7">
-        <v>0.3365716845130267</v>
+        <v>0.3915490853191271</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2914848454201801</v>
+        <v>0.3135314731477879</v>
       </c>
       <c r="C8">
-        <v>0.2916783576633104</v>
+        <v>0.344869875023549</v>
       </c>
       <c r="D8">
-        <v>0.2212395806333997</v>
+        <v>0.201523643479535</v>
       </c>
       <c r="E8">
-        <v>0.4703611172635336</v>
+        <v>0.4489138486163408</v>
       </c>
       <c r="F8">
-        <v>0.3915490853191271</v>
+        <v>0.343464132168225</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3135314731477879</v>
+        <v>0.2942408256753315</v>
       </c>
       <c r="C9">
-        <v>0.344869875023549</v>
+        <v>0.3552296618050602</v>
       </c>
       <c r="D9">
-        <v>0.201523643479535</v>
+        <v>0.3108043548782771</v>
       </c>
       <c r="E9">
-        <v>0.4489138486163408</v>
+        <v>0.557498300336671</v>
       </c>
       <c r="F9">
-        <v>0.343464132168225</v>
+        <v>0.5114663298936425</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2942408256753315</v>
+        <v>0.2556306440737632</v>
       </c>
       <c r="C10">
-        <v>0.3552296618050602</v>
+        <v>0.3520957816061401</v>
       </c>
       <c r="D10">
-        <v>0.3108043548782771</v>
+        <v>0.2176259007180903</v>
       </c>
       <c r="E10">
-        <v>0.557498300336671</v>
+        <v>0.4665039128647158</v>
       </c>
       <c r="F10">
-        <v>0.5114663298936425</v>
+        <v>0.4274747354338359</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2556306440737632</v>
+        <v>0.3025019693341894</v>
       </c>
       <c r="C11">
-        <v>0.3520957816061401</v>
+        <v>0.3751403399158096</v>
       </c>
       <c r="D11">
-        <v>0.2176259007180903</v>
+        <v>0.3407721918770704</v>
       </c>
       <c r="E11">
-        <v>0.4665039128647158</v>
+        <v>0.5837569630223441</v>
       </c>
       <c r="F11">
-        <v>0.4274747354338359</v>
+        <v>0.5581943550704445</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_error_tables_T45_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_error_tables_T45_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1727455869996703</v>
+        <v>0.2036364321150554</v>
       </c>
       <c r="C2">
-        <v>0.2925651826085037</v>
+        <v>0.3089978501498661</v>
       </c>
       <c r="D2">
-        <v>0.1673036931228319</v>
+        <v>0.216765395349195</v>
       </c>
       <c r="E2">
-        <v>0.409027741263147</v>
+        <v>0.4655807076643049</v>
       </c>
       <c r="F2">
-        <v>0.3847553842407884</v>
+        <v>0.4333807286052367</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2046513626860979</v>
+        <v>0.1727455869996703</v>
       </c>
       <c r="C3">
-        <v>0.2941678900787714</v>
+        <v>0.2925651826085037</v>
       </c>
       <c r="D3">
-        <v>0.1637830044104861</v>
+        <v>0.1673036931228319</v>
       </c>
       <c r="E3">
-        <v>0.4047011297371013</v>
+        <v>0.409027741263147</v>
       </c>
       <c r="F3">
-        <v>0.3633995406912939</v>
+        <v>0.3847553842407884</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2207881156328718</v>
+        <v>0.2046513626860979</v>
       </c>
       <c r="C4">
-        <v>0.3023524304801385</v>
+        <v>0.2941678900787714</v>
       </c>
       <c r="D4">
-        <v>0.1964366846399542</v>
+        <v>0.1637830044104861</v>
       </c>
       <c r="E4">
-        <v>0.4432117830563107</v>
+        <v>0.4047011297371013</v>
       </c>
       <c r="F4">
-        <v>0.4013920676417463</v>
+        <v>0.3633995406912939</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2661302185036374</v>
+        <v>0.2207881156328718</v>
       </c>
       <c r="C5">
-        <v>0.2968048388866972</v>
+        <v>0.3023524304801385</v>
       </c>
       <c r="D5">
-        <v>0.2374595161704083</v>
+        <v>0.1964366846399542</v>
       </c>
       <c r="E5">
-        <v>0.4872981799375084</v>
+        <v>0.4432117830563107</v>
       </c>
       <c r="F5">
-        <v>0.4281327425770843</v>
+        <v>0.4013920676417463</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2665145217128843</v>
+        <v>0.2661302185036374</v>
       </c>
       <c r="C6">
-        <v>0.2913645221026481</v>
+        <v>0.2968048388866972</v>
       </c>
       <c r="D6">
-        <v>0.1729824392181902</v>
+        <v>0.2374595161704083</v>
       </c>
       <c r="E6">
-        <v>0.4159115762012284</v>
+        <v>0.4872981799375084</v>
       </c>
       <c r="F6">
-        <v>0.3365716845130267</v>
+        <v>0.4281327425770843</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2914848454201801</v>
+        <v>0.2665145217128843</v>
       </c>
       <c r="C7">
-        <v>0.2916783576633104</v>
+        <v>0.2913645221026481</v>
       </c>
       <c r="D7">
-        <v>0.2212395806333997</v>
+        <v>0.1729824392181902</v>
       </c>
       <c r="E7">
-        <v>0.4703611172635336</v>
+        <v>0.4159115762012284</v>
       </c>
       <c r="F7">
-        <v>0.3915490853191271</v>
+        <v>0.3365716845130267</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3135314731477879</v>
+        <v>0.2914848454201801</v>
       </c>
       <c r="C8">
-        <v>0.344869875023549</v>
+        <v>0.2916783576633104</v>
       </c>
       <c r="D8">
-        <v>0.201523643479535</v>
+        <v>0.2212395806333997</v>
       </c>
       <c r="E8">
-        <v>0.4489138486163408</v>
+        <v>0.4703611172635336</v>
       </c>
       <c r="F8">
-        <v>0.343464132168225</v>
+        <v>0.3915490853191271</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2942408256753315</v>
+        <v>0.3135314731477879</v>
       </c>
       <c r="C9">
-        <v>0.3552296618050602</v>
+        <v>0.344869875023549</v>
       </c>
       <c r="D9">
-        <v>0.3108043548782771</v>
+        <v>0.201523643479535</v>
       </c>
       <c r="E9">
-        <v>0.557498300336671</v>
+        <v>0.4489138486163408</v>
       </c>
       <c r="F9">
-        <v>0.5114663298936425</v>
+        <v>0.343464132168225</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2556306440737632</v>
+        <v>0.2942408256753315</v>
       </c>
       <c r="C10">
-        <v>0.3520957816061401</v>
+        <v>0.3552296618050602</v>
       </c>
       <c r="D10">
-        <v>0.2176259007180903</v>
+        <v>0.3108043548782771</v>
       </c>
       <c r="E10">
-        <v>0.4665039128647158</v>
+        <v>0.557498300336671</v>
       </c>
       <c r="F10">
-        <v>0.4274747354338359</v>
+        <v>0.5114663298936425</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3025019693341894</v>
+        <v>0.2556306440737632</v>
       </c>
       <c r="C11">
-        <v>0.3751403399158096</v>
+        <v>0.3520957816061401</v>
       </c>
       <c r="D11">
-        <v>0.3407721918770704</v>
+        <v>0.2176259007180903</v>
       </c>
       <c r="E11">
-        <v>0.5837569630223441</v>
+        <v>0.4665039128647158</v>
       </c>
       <c r="F11">
-        <v>0.5581943550704445</v>
+        <v>0.4274747354338359</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
